--- a/feedback_forms/testing_versions/standard/landfill_operator_feedback_v070_test_02_bad_data.xlsx
+++ b/feedback_forms/testing_versions/standard/landfill_operator_feedback_v070_test_02_bad_data.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tony_local\pycharm\feedback_portal\feedback_forms\testing_versions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\local\cursor\feedback_portal\feedback_forms\testing_versions\standard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F17F90B-76C5-4330-9CE2-70146F2B3264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42713804-9F1E-44E3-8120-33AB300B1BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="IlaP+OLUA+o4WV2rL0zjc11ddrK2lKB4RS/K3dYFr4ndVQaCD9Fx3rkKI/4+uoMpfVufYGOKcgK6GRdzYJKqzg==" workbookSaltValue="6S70W+zXLfNZMurof0cgQA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3927" yWindow="1360" windowWidth="19200" windowHeight="11387" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
+    <workbookView xWindow="5606" yWindow="3257" windowWidth="21728" windowHeight="13260" tabRatio="705" xr2:uid="{908CDDAE-4CC3-4DCD-AAA9-A26C259C2234}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback Form" sheetId="6" r:id="rId1"/>
@@ -3963,21 +3963,21 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:AG73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.1171875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="65.703125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="4.703125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="65.703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="4.1171875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.07421875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="65.69140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="4.69140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="65.69140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="4.07421875" style="19" customWidth="1"/>
     <col min="6" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.4">
       <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
@@ -4022,7 +4022,7 @@
       <c r="E2" s="31"/>
       <c r="F2" s="48"/>
     </row>
-    <row r="3" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:33" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.4">
       <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
@@ -4031,13 +4031,13 @@
       <c r="E3" s="31"/>
       <c r="F3" s="49"/>
     </row>
-    <row r="4" spans="2:33" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:33" s="30" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:33" s="34" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
@@ -4107,12 +4107,12 @@
       <c r="AF6" s="51"/>
       <c r="AG6" s="51"/>
     </row>
-    <row r="7" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG7" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B8" s="71" t="s">
         <v>389</v>
       </c>
@@ -4121,7 +4121,7 @@
       <c r="E8" s="35"/>
       <c r="F8" s="48"/>
     </row>
-    <row r="9" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:33" s="36" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="58" t="s">
         <v>284</v>
       </c>
@@ -4130,7 +4130,7 @@
       <c r="E9" s="35"/>
       <c r="F9" s="48"/>
     </row>
-    <row r="10" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:33" s="36" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="59" t="s">
         <v>285</v>
       </c>
@@ -4139,7 +4139,7 @@
       <c r="E10" s="35"/>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="2:33" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:33" s="36" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="60" t="s">
         <v>286</v>
       </c>
@@ -4148,7 +4148,7 @@
       <c r="E11" s="35"/>
       <c r="F11" s="48"/>
     </row>
-    <row r="12" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B12" s="57" t="s">
         <v>282</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="E12" s="35"/>
       <c r="F12" s="48"/>
     </row>
-    <row r="13" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B13" s="57" t="s">
         <v>283</v>
       </c>
@@ -4166,7 +4166,7 @@
       <c r="E13" s="35"/>
       <c r="F13" s="48"/>
     </row>
-    <row r="14" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B14" s="71" t="s">
         <v>390</v>
       </c>
@@ -4175,7 +4175,7 @@
       <c r="E14" s="35"/>
       <c r="F14" s="48"/>
     </row>
-    <row r="15" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B15" s="71" t="s">
         <v>391</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="E15" s="35"/>
       <c r="F15" s="48"/>
     </row>
-    <row r="16" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B16" s="57" t="s">
         <v>287</v>
       </c>
@@ -4193,7 +4193,7 @@
       <c r="E16" s="35"/>
       <c r="F16" s="48"/>
     </row>
-    <row r="17" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B17" s="71" t="s">
         <v>392</v>
       </c>
@@ -4202,7 +4202,7 @@
       <c r="E17" s="35"/>
       <c r="F17" s="48"/>
     </row>
-    <row r="18" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B18" s="61" t="s">
         <v>288</v>
       </c>
@@ -4211,12 +4211,12 @@
       <c r="E18" s="35"/>
       <c r="F18" s="48"/>
     </row>
-    <row r="20" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG20" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:33" s="34" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
@@ -4250,23 +4250,23 @@
       <c r="AF21" s="51"/>
       <c r="AG21" s="51"/>
     </row>
-    <row r="22" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG22" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B23" s="70" t="s">
         <v>371</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="79">
-        <v>2032</v>
+        <v>1002032</v>
       </c>
       <c r="E23" s="47"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B24" s="70" t="s">
         <v>372</v>
       </c>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="E24" s="35"/>
     </row>
-    <row r="25" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:33" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B25" s="70" t="s">
         <v>373</v>
       </c>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="E25" s="35"/>
     </row>
-    <row r="26" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B26" s="71" t="s">
         <v>395</v>
       </c>
@@ -4297,7 +4297,7 @@
       <c r="E26" s="47"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B27" s="70" t="s">
         <v>374</v>
       </c>
@@ -4308,7 +4308,7 @@
       <c r="E27" s="47"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B28" s="72" t="s">
         <v>396</v>
       </c>
@@ -4320,12 +4320,12 @@
       <c r="F28" s="48"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG29" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:33" s="34" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="50"/>
       <c r="C30" s="50"/>
       <c r="D30" s="50"/>
@@ -4359,12 +4359,12 @@
       <c r="AF30" s="51"/>
       <c r="AG30" s="51"/>
     </row>
-    <row r="31" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG31" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:33" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B32" s="73" t="s">
         <v>375</v>
       </c>
@@ -4375,7 +4375,7 @@
       <c r="E32" s="49"/>
       <c r="G32" s="36"/>
     </row>
-    <row r="33" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:33" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B33" s="73" t="s">
         <v>376</v>
       </c>
@@ -4386,7 +4386,7 @@
       <c r="E33" s="49"/>
       <c r="G33" s="36"/>
     </row>
-    <row r="34" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:33" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B34" s="73" t="s">
         <v>377</v>
       </c>
@@ -4397,7 +4397,7 @@
       <c r="E34" s="49"/>
       <c r="G34" s="36"/>
     </row>
-    <row r="35" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:33" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B35" s="73" t="s">
         <v>393</v>
       </c>
@@ -4408,7 +4408,7 @@
       <c r="E35" s="49"/>
       <c r="G35" s="36"/>
     </row>
-    <row r="36" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:33" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B36" s="73" t="s">
         <v>394</v>
       </c>
@@ -4419,12 +4419,12 @@
       <c r="E36" s="49"/>
       <c r="G36" s="36"/>
     </row>
-    <row r="37" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG37" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:33" s="34" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="50"/>
       <c r="C38" s="50"/>
       <c r="D38" s="50"/>
@@ -4458,12 +4458,12 @@
       <c r="AF38" s="51"/>
       <c r="AG38" s="51"/>
     </row>
-    <row r="39" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG39" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:33" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B40" s="77" t="s">
         <v>427</v>
       </c>
@@ -4474,7 +4474,7 @@
       <c r="E40" s="37"/>
       <c r="G40" s="36"/>
     </row>
-    <row r="41" spans="2:33" s="20" customFormat="1" ht="30.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:33" s="20" customFormat="1" ht="30.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B41" s="38" t="s">
         <v>378</v>
       </c>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="G41" s="36"/>
     </row>
-    <row r="42" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:33" s="20" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B42" s="73" t="s">
         <v>333</v>
       </c>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="G42" s="36"/>
     </row>
-    <row r="43" spans="2:33" s="20" customFormat="1" ht="45.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:33" s="20" customFormat="1" ht="45.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B43" s="38" t="s">
         <v>303</v>
       </c>
@@ -4504,12 +4504,12 @@
       </c>
       <c r="G43" s="36"/>
     </row>
-    <row r="44" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG44" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:33" s="34" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
       <c r="D45" s="50"/>
@@ -4543,13 +4543,13 @@
       <c r="AF45" s="51"/>
       <c r="AG45" s="51"/>
     </row>
-    <row r="46" spans="2:33" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:33" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B46" s="48"/>
       <c r="AG46" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:33" s="30" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:33" s="30" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B47" s="38" t="s">
         <v>379</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:33" s="20" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:33" s="20" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B48" s="54" t="s">
         <v>343</v>
       </c>
@@ -4572,7 +4572,7 @@
       <c r="E48" s="30"/>
       <c r="G48" s="36"/>
     </row>
-    <row r="49" spans="2:33" s="20" customFormat="1" ht="30.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:33" s="20" customFormat="1" ht="30.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B49" s="38" t="s">
         <v>344</v>
       </c>
@@ -4583,7 +4583,7 @@
       <c r="E49" s="30"/>
       <c r="G49" s="36"/>
     </row>
-    <row r="50" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:33" s="20" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B50" s="38" t="s">
         <v>359</v>
       </c>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="G50" s="36"/>
     </row>
-    <row r="51" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:33" s="20" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B51" s="38" t="s">
         <v>361</v>
       </c>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="G51" s="36"/>
     </row>
-    <row r="52" spans="2:33" s="20" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:33" s="20" customFormat="1" ht="46.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B52" s="38" t="s">
         <v>380</v>
       </c>
@@ -4613,7 +4613,7 @@
       </c>
       <c r="G52" s="36"/>
     </row>
-    <row r="53" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:33" s="20" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B53" s="77" t="s">
         <v>426</v>
       </c>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="G53" s="36"/>
     </row>
-    <row r="54" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:33" s="20" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B54" s="73" t="s">
         <v>318</v>
       </c>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="G54" s="36"/>
     </row>
-    <row r="55" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:33" s="20" customFormat="1" ht="50.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B55" s="73" t="s">
         <v>319</v>
       </c>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="G55" s="36"/>
     </row>
-    <row r="56" spans="2:33" s="20" customFormat="1" ht="45.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:33" s="20" customFormat="1" ht="45.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B56" s="38" t="s">
         <v>370</v>
       </c>
@@ -4650,12 +4650,12 @@
       </c>
       <c r="G56" s="36"/>
     </row>
-    <row r="57" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:33" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B57" s="49"/>
       <c r="C57" s="49"/>
       <c r="D57" s="49"/>
     </row>
-    <row r="58" spans="2:33" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:33" s="34" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="50"/>
       <c r="C58" s="50"/>
       <c r="D58" s="50"/>
@@ -4689,12 +4689,12 @@
       <c r="AF58" s="51"/>
       <c r="AG58" s="51"/>
     </row>
-    <row r="59" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:33" s="30" customFormat="1" x14ac:dyDescent="0.4">
       <c r="AG59" s="30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:33" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B60" s="73" t="s">
         <v>381</v>
       </c>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="G60" s="36"/>
     </row>
-    <row r="61" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:33" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B61" s="73" t="s">
         <v>382</v>
       </c>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="G61" s="36"/>
     </row>
-    <row r="62" spans="2:33" s="20" customFormat="1" ht="15.35" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:33" s="20" customFormat="1" ht="15.45" x14ac:dyDescent="0.4">
       <c r="B62" s="38" t="s">
         <v>383</v>
       </c>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="G62" s="36"/>
     </row>
-    <row r="63" spans="2:33" s="20" customFormat="1" ht="15.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:33" s="20" customFormat="1" ht="15.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B63" s="38" t="s">
         <v>384</v>
       </c>
@@ -4730,7 +4730,7 @@
       </c>
       <c r="G63" s="36"/>
     </row>
-    <row r="64" spans="2:33" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:33" s="20" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="73" t="s">
         <v>315</v>
       </c>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="G64" s="36"/>
     </row>
-    <row r="65" spans="2:7" s="20" customFormat="1" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:7" s="20" customFormat="1" ht="31.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B65" s="73" t="s">
         <v>397</v>
       </c>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="G65" s="36"/>
     </row>
-    <row r="66" spans="2:7" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:7" s="20" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="73" t="s">
         <v>316</v>
       </c>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="G66" s="36"/>
     </row>
-    <row r="67" spans="2:7" s="20" customFormat="1" ht="15.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:7" s="20" customFormat="1" ht="30.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B67" s="73" t="s">
         <v>398</v>
       </c>
@@ -4766,15 +4766,15 @@
       </c>
       <c r="G67" s="36"/>
     </row>
-    <row r="68" spans="2:7" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:7" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="B68" s="49"/>
       <c r="D68" s="39"/>
     </row>
-    <row r="69" spans="2:7" s="40" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:7" s="40" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.4">
       <c r="G69" s="36"/>
     </row>
-    <row r="70" spans="2:7" s="40" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="71" spans="2:7" s="20" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:7" s="40" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="71" spans="2:7" s="20" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B71" s="73" t="s">
         <v>385</v>
       </c>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="G71" s="36"/>
     </row>
-    <row r="72" spans="2:7" s="20" customFormat="1" ht="30.35" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:7" s="20" customFormat="1" ht="30.45" x14ac:dyDescent="0.4">
       <c r="B72" s="73" t="s">
         <v>386</v>
       </c>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="G72" s="36"/>
     </row>
-    <row r="73" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:7" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.4">
       <c r="B73" s="38" t="s">
         <v>425</v>
       </c>
@@ -4968,19 +4968,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="10.64453125" customWidth="1"/>
-    <col min="4" max="4" width="80.64453125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="10.61328125" customWidth="1"/>
+    <col min="4" max="4" width="80.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:4" s="15" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="15" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -5004,17 +5004,17 @@
         <v>431</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9" s="16" t="s">
         <v>432</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10" s="16"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>433</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B12" s="23" t="s">
         <v>435</v>
       </c>
@@ -5036,72 +5036,72 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B13" s="23"/>
       <c r="C13" s="78"/>
       <c r="D13" s="23"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15" s="23"/>
       <c r="C15" s="78"/>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -5123,18 +5123,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="45.703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.41015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5859375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="45.703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.61328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.69140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="21" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:18" s="21" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="21" t="s">
         <v>14</v>
       </c>
@@ -5142,7 +5142,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="G3" s="4"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -5156,7 +5156,7 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -5164,15 +5164,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B7" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B8" s="16"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:18" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B10" s="23" t="s">
         <v>20</v>
       </c>
@@ -5191,7 +5191,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:18" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B11" s="23" t="s">
         <v>22</v>
       </c>
@@ -5202,7 +5202,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:18" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B12" s="23" t="s">
         <v>24</v>
       </c>
@@ -5213,7 +5213,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B13" s="23" t="s">
         <v>26</v>
       </c>
@@ -5224,15 +5224,15 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B14" s="20"/>
       <c r="C14" s="23"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B15" s="20"/>
       <c r="C15" s="23"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B16" s="16" t="s">
         <v>28</v>
       </c>
@@ -5249,7 +5249,7 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="G17" s="4"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -5263,7 +5263,7 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -5294,7 +5294,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" spans="2:18" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:18" s="20" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B19" s="20">
         <v>1</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:18" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B20" s="20">
         <v>2</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:18" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:18" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B21" s="20">
         <v>3</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="20">
         <v>4</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:18" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:18" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B23" s="20">
         <v>5</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="20">
         <v>6</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:18" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B25" s="20">
         <v>7</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:18" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:18" s="20" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="B26" s="20">
         <v>8</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:18" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B27" s="20">
         <v>9</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="20">
         <v>10</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:18" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B29" s="20">
         <v>11</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:18" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:18" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B30" s="20">
         <v>12</v>
       </c>
@@ -5544,7 +5544,7 @@
       </c>
       <c r="G30" s="23"/>
     </row>
-    <row r="31" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:18" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B31" s="20">
         <v>13</v>
       </c>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="G31" s="23"/>
     </row>
-    <row r="32" spans="2:18" s="20" customFormat="1" ht="157.69999999999999" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:18" s="20" customFormat="1" ht="189.45" x14ac:dyDescent="0.4">
       <c r="B32" s="20">
         <v>14</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B33" s="20">
         <v>15</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="20" customFormat="1" ht="86" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:7" s="20" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="B34" s="20">
         <v>16</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B35" s="20">
         <v>17</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B36" s="20">
         <v>18</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="2:7" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:7" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B37" s="20">
         <v>19</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B38" s="20">
         <v>20</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B39" s="20">
         <v>21</v>
       </c>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="G39" s="23"/>
     </row>
-    <row r="40" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B40" s="20">
         <v>22</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B41" s="20">
         <v>23</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B42" s="20">
         <v>24</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="2:7" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:7" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B43" s="20">
         <v>25</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="2:7" s="20" customFormat="1" ht="114.7" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:7" s="20" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
       <c r="B44" s="20">
         <v>26</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:7" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B45" s="20">
         <v>27</v>
       </c>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="G45" s="23"/>
     </row>
-    <row r="46" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B46" s="20">
         <v>28</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="2:7" s="20" customFormat="1" ht="114.7" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:7" s="20" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
       <c r="B47" s="20">
         <v>29</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B48" s="20">
         <v>30</v>
       </c>
@@ -5914,7 +5914,7 @@
       </c>
       <c r="G48" s="23"/>
     </row>
-    <row r="49" spans="2:12" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B49" s="20">
         <v>31</v>
       </c>
@@ -5933,7 +5933,7 @@
       </c>
       <c r="G49" s="23"/>
     </row>
-    <row r="50" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B50" s="20">
         <v>32</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B51" s="20">
         <v>33</v>
       </c>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="G51" s="23"/>
     </row>
-    <row r="52" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B52" s="20">
         <v>34</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B53" s="20">
         <v>35</v>
       </c>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="G53" s="23"/>
     </row>
-    <row r="54" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B54" s="20">
         <v>36</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B55" s="20">
         <v>37</v>
       </c>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="G55" s="23"/>
     </row>
-    <row r="56" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B56" s="20">
         <v>38</v>
       </c>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="G56" s="23"/>
     </row>
-    <row r="57" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:12" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.5">
       <c r="B57" s="20">
         <v>39</v>
       </c>
@@ -6089,7 +6089,7 @@
       <c r="G57" s="23"/>
       <c r="L57" s="27"/>
     </row>
-    <row r="58" spans="2:12" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B58" s="20">
         <v>40</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="2:12" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B59" s="20">
         <v>41</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B60" s="20">
         <v>42</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="2:12" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B61" s="20">
         <v>43</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B62" s="20">
         <v>44</v>
       </c>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="G62" s="23"/>
     </row>
-    <row r="63" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B63" s="20">
         <v>45</v>
       </c>
@@ -6211,7 +6211,7 @@
       </c>
       <c r="G63" s="23"/>
     </row>
-    <row r="64" spans="2:12" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B64" s="20">
         <v>46</v>
       </c>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="G64" s="23"/>
     </row>
-    <row r="65" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B65" s="20">
         <v>47</v>
       </c>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="G65" s="23"/>
     </row>
-    <row r="66" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B66" s="20">
         <v>48</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B67" s="20">
         <v>49</v>
       </c>
@@ -6289,7 +6289,7 @@
       </c>
       <c r="G67" s="23"/>
     </row>
-    <row r="68" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B68" s="20">
         <v>50</v>
       </c>
@@ -6308,7 +6308,7 @@
       </c>
       <c r="G68" s="23"/>
     </row>
-    <row r="69" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B69" s="20">
         <v>51</v>
       </c>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="G69" s="23"/>
     </row>
-    <row r="70" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B70" s="20">
         <v>52</v>
       </c>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="G70" s="23"/>
     </row>
-    <row r="71" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B71" s="20">
         <v>53</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="2:7" s="20" customFormat="1" ht="114.7" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:7" s="20" customFormat="1" ht="116.6" x14ac:dyDescent="0.4">
       <c r="B72" s="20">
         <v>54</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="73" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B73" s="20">
         <v>55</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="74" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B74" s="20">
         <v>56</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="75" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B75" s="20">
         <v>57</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B76" s="20">
         <v>58</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:7" s="20" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B77" s="20">
         <v>59</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="78" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B78" s="20">
         <v>60</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B79" s="20">
         <v>61</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B80" s="20">
         <v>62</v>
       </c>
@@ -6554,7 +6554,7 @@
       </c>
       <c r="G80" s="23"/>
     </row>
-    <row r="81" spans="2:7" s="20" customFormat="1" ht="172" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:7" s="20" customFormat="1" ht="189.45" x14ac:dyDescent="0.4">
       <c r="B81" s="20">
         <v>63</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B82" s="20">
         <v>64</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="83" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B83" s="20">
         <v>65</v>
       </c>
@@ -6615,7 +6615,7 @@
       </c>
       <c r="G83" s="23"/>
     </row>
-    <row r="84" spans="2:7" ht="43" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B84" s="20">
         <v>66</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B85" s="20">
         <v>67</v>
       </c>
@@ -6655,7 +6655,7 @@
       </c>
       <c r="G85" s="23"/>
     </row>
-    <row r="86" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B86" s="20">
         <v>68</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:7" s="20" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B87" s="20">
         <v>69</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="88" spans="2:7" s="20" customFormat="1" ht="229.35" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:7" s="20" customFormat="1" ht="262.3" x14ac:dyDescent="0.4">
       <c r="B88" s="20">
         <v>70</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="89" spans="2:7" s="20" customFormat="1" ht="258" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:7" s="20" customFormat="1" ht="291.45" x14ac:dyDescent="0.4">
       <c r="B89" s="20" t="s">
         <v>336</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="90" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B90" s="20" t="s">
         <v>339</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="91" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B91" s="20" t="s">
         <v>342</v>
       </c>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="2:7" s="20" customFormat="1" ht="186.35" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:7" s="20" customFormat="1" ht="189.45" x14ac:dyDescent="0.4">
       <c r="B92" s="20">
         <v>71</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="93" spans="2:7" s="20" customFormat="1" ht="43" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:7" s="20" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B93" s="20">
         <v>71</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="94" spans="2:7" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:7" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B94" s="20">
         <v>72</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="95" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B95" s="20">
         <v>73</v>
       </c>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="G95" s="23"/>
     </row>
-    <row r="96" spans="2:7" s="20" customFormat="1" ht="57.35" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:7" s="20" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B96" s="20">
         <v>74</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B97" s="20">
         <v>75</v>
       </c>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="G97" s="23"/>
     </row>
-    <row r="98" spans="2:7" s="20" customFormat="1" ht="129" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:7" s="20" customFormat="1" ht="131.15" x14ac:dyDescent="0.4">
       <c r="B98" s="20">
         <v>76</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="99" spans="2:7" s="20" customFormat="1" ht="329.7" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:7" s="20" customFormat="1" ht="364.3" x14ac:dyDescent="0.4">
       <c r="B99" s="20">
         <v>77</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="100" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:7" s="20" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B100" s="20">
         <v>78</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="101" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:7" s="20" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B101" s="20">
         <v>79</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="102" spans="2:7" s="20" customFormat="1" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:7" s="20" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B102" s="20">
         <v>80</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="2:7" s="20" customFormat="1" ht="86" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:7" s="20" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="B103" s="20">
         <v>81</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="104" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:7" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B104" s="20">
         <v>82</v>
       </c>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="G104" s="23"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B105" s="20">
         <v>83</v>
       </c>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="G105" s="23"/>
     </row>
-    <row r="106" spans="2:7" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:7" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B106" s="20">
         <v>84</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="43" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B107" s="20">
         <v>85</v>
       </c>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="G107" s="23"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B108" s="20">
         <v>86</v>
       </c>
@@ -7124,7 +7124,7 @@
       </c>
       <c r="G108" s="23"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B109" s="20">
         <v>87</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B110" s="20">
         <v>88</v>
       </c>
@@ -7164,7 +7164,7 @@
       </c>
       <c r="G110" s="23"/>
     </row>
-    <row r="111" spans="2:7" s="20" customFormat="1" ht="71.7" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:7" s="20" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="B111" s="20">
         <v>89</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B112" s="20">
         <v>90</v>
       </c>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="G112" s="23"/>
     </row>
-    <row r="113" spans="2:7" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B113" s="20">
         <v>91</v>
       </c>
@@ -7223,7 +7223,7 @@
       </c>
       <c r="G113" s="23"/>
     </row>
-    <row r="114" spans="2:7" ht="43" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B114" s="20">
         <v>92</v>
       </c>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="G114" s="23"/>
     </row>
-    <row r="115" spans="2:7" ht="129" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:7" ht="131.15" x14ac:dyDescent="0.4">
       <c r="B115" s="20">
         <v>93</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B116" s="20">
         <v>94</v>
       </c>
@@ -7273,7 +7273,7 @@
       <c r="F116" s="23"/>
       <c r="G116" s="23"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B117" s="20">
         <v>95</v>
       </c>
@@ -7283,7 +7283,7 @@
       <c r="F117" s="23"/>
       <c r="G117" s="23"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B118" s="20">
         <v>96</v>
       </c>
@@ -7293,7 +7293,7 @@
       <c r="F118" s="23"/>
       <c r="G118" s="23"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B119" s="20">
         <v>97</v>
       </c>
@@ -7303,7 +7303,7 @@
       <c r="F119" s="23"/>
       <c r="G119" s="23"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B120" s="20">
         <v>98</v>
       </c>
@@ -7313,7 +7313,7 @@
       <c r="F120" s="23"/>
       <c r="G120" s="23"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B121" s="20">
         <v>99</v>
       </c>
@@ -7323,7 +7323,7 @@
       <c r="F121" s="23"/>
       <c r="G121" s="23"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B122" s="20">
         <v>100</v>
       </c>
@@ -7358,21 +7358,21 @@
       <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="92.29296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1171875" customWidth="1"/>
-    <col min="4" max="5" width="16.703125" customWidth="1"/>
-    <col min="6" max="17" width="16.703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="92.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.07421875" customWidth="1"/>
+    <col min="4" max="5" width="16.69140625" customWidth="1"/>
+    <col min="6" max="17" width="16.69140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" s="67" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:17" s="67" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="67" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -7392,7 +7392,7 @@
       <c r="P4"/>
       <c r="Q4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -7411,7 +7411,7 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -7430,7 +7430,7 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -7443,12 +7443,12 @@
       <c r="P7"/>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="1:17" s="68" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:17" s="68" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="68" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -7461,7 +7461,7 @@
       <c r="P9"/>
       <c r="Q9"/>
     </row>
-    <row r="10" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="16" t="s">
         <v>187</v>
       </c>
@@ -7483,7 +7483,7 @@
       <c r="P10" s="69"/>
       <c r="Q10" s="69"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>190</v>
       </c>
@@ -7497,7 +7497,7 @@
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>192</v>
       </c>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>191</v>
       </c>
@@ -7525,80 +7525,80 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="15" spans="1:17" s="68" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:17" s="68" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="68" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" s="16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B22" s="16" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B23" s="16"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B28" s="16" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B35" s="16" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B37" t="str">
         <f t="shared" ref="B37:B43" si="0">D38</f>
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
@@ -7617,7 +7617,7 @@
       <c r="P37"/>
       <c r="Q37"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>Gas Control Device/Control System Component</v>
@@ -7636,7 +7636,7 @@
       <c r="P38"/>
       <c r="Q38"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>Landfill Surface: Daily Cover</v>
@@ -7654,7 +7654,7 @@
       <c r="P39"/>
       <c r="Q39"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>Landfill Surface: Final Cover</v>
@@ -7672,7 +7672,7 @@
       <c r="P40"/>
       <c r="Q40"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>Landfill Surface: Intermediate Cover</v>
@@ -7690,7 +7690,7 @@
       <c r="P41"/>
       <c r="Q41"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>Leachate Management System</v>
@@ -7708,7 +7708,7 @@
       <c r="P42"/>
       <c r="Q42"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B43" t="str">
         <f t="shared" si="0"/>
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
@@ -7726,25 +7726,25 @@
       <c r="P43"/>
       <c r="Q43"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D44" s="7" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B45" s="16" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B46" s="16"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="63" t="str" cm="1">
         <f t="array" ref="B48:B58">_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn.TOCOL(C64:M70, 1)))</f>
         <v>Collection system downtime</v>
@@ -7752,89 +7752,89 @@
       <c r="E48" s="7"/>
       <c r="Q48"/>
     </row>
-    <row r="49" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="65" t="str">
         <v>Construction - New Well Installation</v>
       </c>
       <c r="E49" s="7"/>
       <c r="Q49"/>
     </row>
-    <row r="50" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="66" t="str">
         <v>Construction - Well Raising or Horizontal Extension</v>
       </c>
       <c r="E50" s="7"/>
       <c r="Q50"/>
     </row>
-    <row r="51" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="64" t="str">
         <v>Cover integrity</v>
       </c>
       <c r="E51" s="7"/>
       <c r="Q51"/>
     </row>
-    <row r="52" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="63" t="str">
         <v>Cover-related Construction (Excavation/ Exposed Operations/ Re-grading)</v>
       </c>
       <c r="E52" s="7"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="64" t="str">
         <v>Cracked/Broken Seal</v>
       </c>
       <c r="E53" s="7"/>
       <c r="Q53"/>
     </row>
-    <row r="54" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="63" t="str">
         <v>Damaged component</v>
       </c>
       <c r="E54" s="7"/>
       <c r="Q54"/>
     </row>
-    <row r="55" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="63" t="str">
         <v>Insufficient vacuum</v>
       </c>
       <c r="E55" s="7"/>
       <c r="Q55"/>
     </row>
-    <row r="56" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="65" t="str">
         <v>Offline Gas Collection Well(s)</v>
       </c>
       <c r="E56" s="7"/>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="66" t="str">
         <v>Other</v>
       </c>
       <c r="E57" s="7"/>
       <c r="Q57"/>
     </row>
-    <row r="58" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="64" t="str">
         <v>Uncontrolled Area (no gas collection infrastructure)</v>
       </c>
       <c r="E58" s="7"/>
       <c r="Q58"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B60" s="16" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="2:17" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="62" spans="2:17" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="3" t="s">
         <v>176</v>
       </c>
@@ -7842,7 +7842,7 @@
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="2:17" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:17" ht="15.9" x14ac:dyDescent="0.45">
       <c r="B63" s="2" t="s">
         <v>177</v>
       </c>
@@ -7852,7 +7852,7 @@
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="2:17" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:17" ht="59.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="6" t="s">
         <v>399</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="10" t="s">
         <v>167</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="10" t="s">
         <v>168</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B67" s="6" t="s">
         <v>169</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="68" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B68" s="10" t="s">
         <v>170</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B69" s="10" t="s">
         <v>186</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="70" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:13" ht="59.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B70" s="6" t="s">
         <v>13</v>
       </c>
@@ -8068,12 +8068,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B72" s="16" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B74" t="str" cm="1">
         <f t="array" ref="B74:C125">_xlfn.HSTACK(_xlfn.TOCOL(_xlfn.IFS(C64:M70&lt;&gt;"",B64:B70),3),_xlfn.TOCOL(C64:M70,1))</f>
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
@@ -8083,7 +8083,7 @@
       </c>
       <c r="G74"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B75" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -8092,7 +8092,7 @@
       </c>
       <c r="G75"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B76" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -8101,7 +8101,7 @@
       </c>
       <c r="G76"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B77" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -8110,7 +8110,7 @@
       </c>
       <c r="G77"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B78" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -8119,7 +8119,7 @@
       </c>
       <c r="G78"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B79" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="G79"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B80" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="G80"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B81" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="G81"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B82" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8155,7 +8155,7 @@
       </c>
       <c r="G82"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B83" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="G83"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B84" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="G84"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B85" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8182,7 +8182,7 @@
       </c>
       <c r="G85"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B86" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="G86"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B87" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8200,7 +8200,7 @@
       </c>
       <c r="G87"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="G88"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B89" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="G89"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B90" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="G90"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B91" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="G91"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B92" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8245,7 +8245,7 @@
       </c>
       <c r="G92"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B93" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8254,7 +8254,7 @@
       </c>
       <c r="G93"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B94" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="G94"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B95" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8272,7 +8272,7 @@
       </c>
       <c r="G95"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B96" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="G96"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B97" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="G97"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B98" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8299,7 +8299,7 @@
       </c>
       <c r="G98"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B99" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8308,7 +8308,7 @@
       </c>
       <c r="G99"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B100" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8317,7 +8317,7 @@
       </c>
       <c r="G100"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B101" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="G101"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B102" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="G102"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B103" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8344,7 +8344,7 @@
       </c>
       <c r="G103"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B104" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="G104"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B105" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8362,7 +8362,7 @@
       </c>
       <c r="G105"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B106" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8371,7 +8371,7 @@
       </c>
       <c r="G106"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B107" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8380,7 +8380,7 @@
       </c>
       <c r="G107"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B108" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8389,7 +8389,7 @@
       </c>
       <c r="G108"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B109" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8398,7 +8398,7 @@
       </c>
       <c r="G109"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B110" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8407,7 +8407,7 @@
       </c>
       <c r="G110"/>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B111" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="G111"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B112" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="G112"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B113" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8434,7 +8434,7 @@
       </c>
       <c r="G113"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B114" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8443,7 +8443,7 @@
       </c>
       <c r="G114"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B115" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8452,7 +8452,7 @@
       </c>
       <c r="G115"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B116" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="G116"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B117" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8470,7 +8470,7 @@
       </c>
       <c r="G117"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B118" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8479,7 +8479,7 @@
       </c>
       <c r="G118"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B119" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="G119"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B120" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8497,7 +8497,7 @@
       </c>
       <c r="G120"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B121" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8506,7 +8506,7 @@
       </c>
       <c r="G121"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B122" t="str">
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
       </c>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="G122"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B123" t="str">
         <v>Gas Control Device/Control System Component</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>Cover-related Construction (Excavation/ Exposed Operations/ Re-grading)</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B124" t="str">
         <v>Gas Control Device/Control System Component</v>
       </c>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="G124"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B125" t="str">
         <v>Gas Control Device/Control System Component</v>
       </c>
@@ -8541,21 +8541,21 @@
       </c>
       <c r="G125"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G126"/>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G134"/>
     </row>
-    <row r="135" spans="2:7" s="68" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="135" spans="2:7" s="68" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" s="68" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G136"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B137" s="17" t="s">
         <v>193</v>
       </c>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="G137"/>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B138" s="16"/>
       <c r="C138" s="16"/>
       <c r="G138"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B139" t="s">
         <v>163</v>
       </c>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="G139"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B140" t="str" cm="1">
         <f t="array" ref="B140:B142">_carb_only_table_02[]</f>
         <v>Operator was aware of the leak prior to receiving the CARB plume notification</v>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="G140"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B141" t="str">
         <v>Operator detected a leak during follow-up monitoring after receipt of the CARB plume notification</v>
       </c>
@@ -8598,7 +8598,7 @@
       </c>
       <c r="G141"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B142" t="str">
         <v>No leak was detected</v>
       </c>
@@ -8607,18 +8607,18 @@
       </c>
       <c r="G142"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G143"/>
     </row>
-    <row r="144" spans="2:7" s="68" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="144" spans="2:7" s="68" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" s="68" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G145"/>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B146" s="17" t="s">
         <v>193</v>
       </c>
@@ -8627,12 +8627,12 @@
       </c>
       <c r="G146"/>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B147" s="16"/>
       <c r="C147" s="16"/>
       <c r="G147"/>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B148" t="s">
         <v>163</v>
       </c>
@@ -8642,7 +8642,7 @@
       </c>
       <c r="G148"/>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B149" t="str">
         <f ca="1">IF(C11=B26, "Not applicable as no leak was detected", "")</f>
         <v/>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="G149"/>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B150" t="str" cm="1">
         <f t="array" ref="B150:B153">_carb_only_table_03[]</f>
         <v>Operator was aware of the leak prior to receiving the notification, and/or repairs were in progress on the date of the plume observation</v>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="G150"/>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B151" t="str">
         <v>An unintentional leak  (i.e., the operator was not aware of, and could be repaired if discovered)</v>
       </c>
@@ -8674,7 +8674,7 @@
       </c>
       <c r="G151"/>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B152" t="str">
         <v>An intentional or allowable vent (i.e., the operator was aware of, and/or would not repair)</v>
       </c>
@@ -8684,24 +8684,24 @@
       </c>
       <c r="G152"/>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B153" t="str">
         <v>Due to a temporary activity (i.e., would be resolved without corrective action when the activity is complete)</v>
       </c>
       <c r="G153"/>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G154"/>
     </row>
-    <row r="155" spans="2:7" s="68" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="155" spans="2:7" s="68" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="68" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G156"/>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B157" s="17" t="s">
         <v>193</v>
       </c>
@@ -8710,12 +8710,12 @@
       </c>
       <c r="G157"/>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B158" s="16"/>
       <c r="C158" s="16"/>
       <c r="G158"/>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B159" t="s">
         <v>163</v>
       </c>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="G159"/>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B160" t="str">
         <f ca="1">IF(C11=B26, "Not applicable as no leak was detected", "")</f>
         <v/>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="G160"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B161" t="str" cm="1">
         <f t="array" ref="B161:B167">_carb_only_table_04[]</f>
         <v>Gas Collection System Component (e.g., blower, well, valve, port)</v>
@@ -8747,7 +8747,7 @@
       </c>
       <c r="G161"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B162" t="str">
         <v>Gas Control Device/Control System Component</v>
       </c>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="G162"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B163" t="str">
         <v>Landfill Surface: Daily Cover</v>
       </c>
@@ -8767,7 +8767,7 @@
       </c>
       <c r="G163"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B164" t="str">
         <v>Landfill Surface: Final Cover</v>
       </c>
@@ -8777,7 +8777,7 @@
       </c>
       <c r="G164"/>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B165" t="str">
         <v>Landfill Surface: Intermediate Cover</v>
       </c>
@@ -8787,7 +8787,7 @@
       </c>
       <c r="G165"/>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B166" t="str">
         <v>Leachate Management System</v>
       </c>
@@ -8797,24 +8797,24 @@
       </c>
       <c r="G166"/>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B167" t="str">
         <v>Working Face (area where active filling was being conducted at the time of detection)</v>
       </c>
       <c r="G167"/>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G168"/>
     </row>
-    <row r="169" spans="2:7" s="68" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="169" spans="2:7" s="68" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B169" s="68" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G170"/>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B171" s="17" t="s">
         <v>193</v>
       </c>
@@ -8823,12 +8823,12 @@
       </c>
       <c r="G171"/>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B172" s="16"/>
       <c r="C172" s="16"/>
       <c r="G172"/>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B173" t="s">
         <v>163</v>
       </c>
@@ -8838,74 +8838,74 @@
       </c>
       <c r="G173"/>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B174" t="str">
         <f ca="1">IF(C11=B26, "Not applicable as no leak was detected", "")</f>
         <v/>
       </c>
       <c r="G174"/>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B175" t="str" cm="1">
         <f t="array" aca="1" ref="B175" ca="1">_xlfn._xlws.FILTER($C$74:$C$125, $B$74:$B$125=C13, "")</f>
         <v/>
       </c>
       <c r="G175"/>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G176"/>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G177"/>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G178"/>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G179"/>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G180"/>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G181"/>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G182"/>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G183"/>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G184"/>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G185"/>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G186"/>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G187"/>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G188"/>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G189"/>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G190"/>
     </row>
-    <row r="191" spans="2:7" s="68" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="191" spans="2:7" s="68" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B191" s="68" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G192"/>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B193" s="17" t="s">
         <v>193</v>
       </c>
@@ -8914,12 +8914,12 @@
       </c>
       <c r="G193"/>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B194" s="16"/>
       <c r="C194" s="16"/>
       <c r="G194"/>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B195" t="s">
         <v>163</v>
       </c>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="G195"/>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B196" t="str">
         <f ca="1">IF(C11=B26, "Not applicable as no leak was detected", "")</f>
         <v/>
@@ -8940,65 +8940,65 @@
       </c>
       <c r="G196"/>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B197" t="s">
         <v>355</v>
       </c>
       <c r="G197"/>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B198" t="str" cm="1">
         <f t="array" aca="1" ref="B198" ca="1">_xlfn._xlws.FILTER($C$74:$C$125, $B$74:$B$125=C13, "")</f>
         <v/>
       </c>
       <c r="G198"/>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G199"/>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G200"/>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G201"/>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G202"/>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G203"/>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G204"/>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G205"/>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G206"/>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G207"/>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G208"/>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G209"/>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G210"/>
     </row>
-    <row r="213" spans="2:7" s="68" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="213" spans="2:7" s="68" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B213" s="68" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B214" s="16"/>
       <c r="G214"/>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B215" s="17" t="s">
         <v>193</v>
       </c>
@@ -9007,12 +9007,12 @@
       </c>
       <c r="G215"/>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B216" s="16"/>
       <c r="C216" s="16"/>
       <c r="G216"/>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B217" t="s">
         <v>163</v>
       </c>
@@ -9022,7 +9022,7 @@
       </c>
       <c r="G217"/>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B218" t="str" cm="1">
         <f t="array" ref="B218:B219">_carb_only_table_01[]</f>
         <v>Yes</v>
@@ -9032,7 +9032,7 @@
       </c>
       <c r="G218"/>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B219" t="str">
         <v>No</v>
       </c>
@@ -9063,19 +9063,19 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
-    <col min="4" max="9" width="8.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" customWidth="1"/>
+    <col min="4" max="9" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="14" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="14" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:3" s="15" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="15" t="s">
         <v>200</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>202</v>
       </c>
@@ -9138,18 +9138,18 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="3" width="30.703125" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="3" width="30.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" s="14" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:3" s="14" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -9181,12 +9181,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="13" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:3" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:3" s="15" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="15" t="s">
         <v>206</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>208</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>210</v>
       </c>
@@ -9226,24 +9226,24 @@
       <selection activeCell="A11" sqref="A11:F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.703125" customWidth="1"/>
-    <col min="2" max="2" width="25.1171875" customWidth="1"/>
-    <col min="3" max="3" width="16.41015625" customWidth="1"/>
-    <col min="4" max="4" width="32.41015625" customWidth="1"/>
-    <col min="5" max="5" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.69140625" customWidth="1"/>
+    <col min="2" max="2" width="25.07421875" customWidth="1"/>
+    <col min="3" max="3" width="16.3828125" customWidth="1"/>
+    <col min="4" max="4" width="32.3828125" customWidth="1"/>
+    <col min="5" max="5" width="16.3828125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="99" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="21" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" s="21" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="21" t="s">
         <v>212</v>
       </c>
       <c r="C2" s="22"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -9253,26 +9253,26 @@
       <c r="C4" s="1"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C5" s="1"/>
       <c r="F5" s="19"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C6" s="1"/>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C7" s="1"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C8" s="1"/>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:6" s="15" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" s="15" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="15" t="s">
         <v>200</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>350</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>350</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>202</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>202</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>202</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>202</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>202</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>202</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>202</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>202</v>
       </c>
@@ -9459,7 +9459,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>202</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>202</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>202</v>
       </c>
@@ -9510,7 +9510,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>202</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>202</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>202</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>202</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>202</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>202</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>202</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>202</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>202</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>202</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>202</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>202</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>202</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>202</v>
       </c>
@@ -9748,7 +9748,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>202</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>35.321100000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>202</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>35.321100000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>202</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>-119.5808</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>202</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>-119.5808</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>202</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>202</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>202</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>45468</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>202</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>202</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>202</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>202</v>
       </c>
@@ -9955,29 +9955,29 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="3" width="12.703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.87890625" customWidth="1"/>
-    <col min="5" max="5" width="13.703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.84375" customWidth="1"/>
+    <col min="5" max="5" width="13.69140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5859375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.29296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.29296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.29296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.61328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.3046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.3046875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" s="21" customFormat="1" ht="20.7" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:13" s="21" customFormat="1" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="21" t="s">
         <v>418</v>
       </c>
       <c r="C2" s="22"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="6" spans="2:13" ht="86" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:13" ht="87.45" x14ac:dyDescent="0.4">
       <c r="B6" s="74" t="s">
         <v>406</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="76"/>
       <c r="C7" s="76"/>
       <c r="D7" s="76"/>
@@ -10029,7 +10029,7 @@
       <c r="L7" s="76"/>
       <c r="M7" s="76"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="76"/>
       <c r="C8" s="76"/>
       <c r="D8" s="76"/>
@@ -10043,7 +10043,7 @@
       <c r="L8" s="76"/>
       <c r="M8" s="76"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" s="76"/>
       <c r="C9" s="76"/>
       <c r="D9" s="76"/>
@@ -10057,7 +10057,7 @@
       <c r="L9" s="76"/>
       <c r="M9" s="76"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" s="76"/>
       <c r="C10" s="76"/>
       <c r="D10" s="76"/>
@@ -10071,7 +10071,7 @@
       <c r="L10" s="76"/>
       <c r="M10" s="76"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="76"/>
       <c r="C11" s="76"/>
       <c r="D11" s="76"/>
@@ -10085,7 +10085,7 @@
       <c r="L11" s="76"/>
       <c r="M11" s="76"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="76"/>
       <c r="C12" s="76"/>
       <c r="D12" s="76"/>
@@ -10099,7 +10099,7 @@
       <c r="L12" s="76"/>
       <c r="M12" s="76"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="76"/>
       <c r="C13" s="76"/>
       <c r="D13" s="76"/>
@@ -10113,7 +10113,7 @@
       <c r="L13" s="76"/>
       <c r="M13" s="76"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="76"/>
       <c r="C14" s="76"/>
       <c r="D14" s="76"/>
@@ -10127,7 +10127,7 @@
       <c r="L14" s="76"/>
       <c r="M14" s="76"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B15" s="76"/>
       <c r="C15" s="76"/>
       <c r="D15" s="76"/>
@@ -10141,7 +10141,7 @@
       <c r="L15" s="76"/>
       <c r="M15" s="76"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="76"/>
       <c r="C16" s="76"/>
       <c r="D16" s="76"/>
@@ -10155,7 +10155,7 @@
       <c r="L16" s="76"/>
       <c r="M16" s="76"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B17" s="76"/>
       <c r="C17" s="76"/>
       <c r="D17" s="76"/>
@@ -10169,7 +10169,7 @@
       <c r="L17" s="76"/>
       <c r="M17" s="76"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B18" s="76"/>
       <c r="C18" s="76"/>
       <c r="D18" s="76"/>
@@ -10183,7 +10183,7 @@
       <c r="L18" s="76"/>
       <c r="M18" s="76"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B19" s="76"/>
       <c r="C19" s="76"/>
       <c r="D19" s="76"/>
@@ -10197,7 +10197,7 @@
       <c r="L19" s="76"/>
       <c r="M19" s="76"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B20" s="76"/>
       <c r="C20" s="76"/>
       <c r="D20" s="76"/>
@@ -10211,7 +10211,7 @@
       <c r="L20" s="76"/>
       <c r="M20" s="76"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B21" s="76"/>
       <c r="C21" s="76"/>
       <c r="D21" s="76"/>
@@ -10225,7 +10225,7 @@
       <c r="L21" s="76"/>
       <c r="M21" s="76"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B22" s="76"/>
       <c r="C22" s="76"/>
       <c r="D22" s="76"/>
@@ -10239,7 +10239,7 @@
       <c r="L22" s="76"/>
       <c r="M22" s="76"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B23" s="76"/>
       <c r="C23" s="76"/>
       <c r="D23" s="76"/>
@@ -10253,7 +10253,7 @@
       <c r="L23" s="76"/>
       <c r="M23" s="76"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B24" s="76"/>
       <c r="C24" s="76"/>
       <c r="D24" s="76"/>
@@ -10267,7 +10267,7 @@
       <c r="L24" s="76"/>
       <c r="M24" s="76"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B25" s="76"/>
       <c r="C25" s="76"/>
       <c r="D25" s="76"/>
@@ -10281,7 +10281,7 @@
       <c r="L25" s="76"/>
       <c r="M25" s="76"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B26" s="76"/>
       <c r="C26" s="76"/>
       <c r="D26" s="76"/>
@@ -10302,6 +10302,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E9A34E7C7C736409D4BDE6375CCC276" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cf521a6d855790dbe6a6d894ff439cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32" xmlns:ns3="e20ceb87-0d79-402a-b4b9-75d78589c76d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a45aa6d812898c4b0f52b4c3685679ce" ns2:_="" ns3:_="">
     <xsd:import namespace="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
@@ -10536,27 +10556,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
+    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e20ceb87-0d79-402a-b4b9-75d78589c76d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC83B422-5B73-4269-9006-1DDE9C149499}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10575,25 +10594,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393EEAE4-A9A0-45DD-A8E7-CAAABB0BE8BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{567EEBE1-6545-4ECC-A20C-42A5CA5522CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1aa5fbe9-a248-4c55-92b7-8f3861f8fb32"/>
-    <ds:schemaRef ds:uri="e20ceb87-0d79-402a-b4b9-75d78589c76d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" enabled="0" method="" siteId="{9de5aaee-7788-40b1-a438-c0ccc98c87cc}" removed="1"/>
